--- a/2° Sprint/Meu Ponto/modelagem físico.xlsx
+++ b/2° Sprint/Meu Ponto/modelagem físico.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21444" windowHeight="5772"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -187,27 +187,27 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,120 +497,120 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="N1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
